--- a/biology/Zoologie/Corynosoma_strumosum/Corynosoma_strumosum.xlsx
+++ b/biology/Zoologie/Corynosoma_strumosum/Corynosoma_strumosum.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Corynosoma strumosum est un ver parasite de l'embranchement des acanthocéphales.
 </t>
@@ -511,10 +523,12 @@
           <t>Hôtes</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Corynosoma strumosum infecte notamment les phoques comme le Phoque annelé de la Baltique (Pusa hispida botnica)[1] ou le Phoque commun (Phoca vitulina)[2] et des mustélidés comme la Loutre d'Europe (Lutra lutra)[3] ou le Vison d'Europe (Mustela lutreola)[4].
-Cet acanthocéphale est présent dans des poissons comme Platichthys stellatus et Lepidopsetta bilineata[5].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Corynosoma strumosum infecte notamment les phoques comme le Phoque annelé de la Baltique (Pusa hispida botnica) ou le Phoque commun (Phoca vitulina) et des mustélidés comme la Loutre d'Europe (Lutra lutra) ou le Vison d'Europe (Mustela lutreola).
+Cet acanthocéphale est présent dans des poissons comme Platichthys stellatus et Lepidopsetta bilineata.
 </t>
         </is>
       </c>
